--- a/metrics/MAPE/Retinopatía proliferativa.xlsx
+++ b/metrics/MAPE/Retinopatía proliferativa.xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.009771705059551645</v>
+        <v>0.01001433382659395</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009832775042068802</v>
+        <v>0.009994915228949573</v>
       </c>
       <c r="D3" t="n">
-        <v>0.009831252552055317</v>
+        <v>0.009988125062444293</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.008122723681406202</v>
+        <v>0.008122215335000831</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008123554515592204</v>
+        <v>0.008123720534826661</v>
       </c>
       <c r="D4" t="n">
-        <v>0.008123142452021746</v>
+        <v>0.008123768522600709</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02782276246608196</v>
+        <v>0.03092728625812262</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02833225826799776</v>
+        <v>0.02912362036232245</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02941954948802518</v>
+        <v>0.02775436488481063</v>
       </c>
     </row>
   </sheetData>
